--- a/eval_results.xlsx
+++ b/eval_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:E10"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,112 +433,424 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Search Type</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Pure Text</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Pure Text</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Pure Text</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pure Vector</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pure Vector</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pure Vector</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Semantic Hybrid</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Semantic Hybrid</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Semantic Hybrid</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
-      <c r="B3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>3</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Search Score</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.4517398</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.1927474</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.4652647</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8692876</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8572363</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8508451</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03279569745063782</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03125763311982155</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.03088619560003281</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0307511743158102</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.03083491325378418</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.03088619560003281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Search Type</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pure Text</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pure Vector</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Hybrid</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Semantic Hybrid</t>
-        </is>
+          <t>Reranker Score</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>3.594822406768799</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.793275117874146</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.755361557006836</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Contextual Precision</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Contextual Precision Reason</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The World’s Cities in 2016 United Nations Data Booklet file:V:\PEP-Section\WUP2014\2016%20Data%20Booklet\Charts%20and%20Images\4_Urbanization_BusanRepublic%20of%20Korea2011UNPhoto_Kibae%20Park_03022015.jpg ii The World’s Cities in 2016 In 2016, an estimated 54.5 per cent of the world’s population lived in urban settlements. By 2030, urban areas are projected to house 60 per cent of people globally and one in every three people will live in cities with at least half a million inhabitants. Understanding the key trends in urbanization likely to unfold over the coming years is crucial to the implementation of the 2030 Agenda for Sustainable Development and for efforts to forge a new framework of ur- ban development during the Habitat III confer- ence scheduled to be held in Quito, Ecuador in October 2016. This data booklet highlights current and future trajectories of populations in cities around the globe, drawing on population estimates and projections published in World Urbanization Prospects: The 2014 Revision. All information is available at www.unpopulation.org. Suggested citation: United Nations, Department of Economic and Social Affairs, Population Di- vision (2016). The World’s Cities in 2016 – Data Booklet (ST/ESA/ SER.A/392). Cover photo: Copyright © UN Photo/Kibae Park 1The World’s Cities in 2016 What is a City? Most people can agree that cities are places where large numbers of people live and work; they are hubs of government, commerce and transportation. But how best to define the geographical limits of a city is a matter of some debate. So far, no standardized international criteria exist for determining the boundaries of a city and often multiple different boundary definitions are available for any given city. One type of definition, sometimes referred to as the “city proper”, describes a city according to an administrative boundary. A second approach, termed the “ur-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.4 0.2 0.3 China, Hong Kong SAR Hong Kong Urban Agglomeration 6 835 7 365 7 885 0.5 0.5 100.0 100.0 Dem. People’s Rep. of Korea P’yongyang City Proper 2 777 2 872 3 277 0.2 0.9 11.4 18.6 Japan Chukyo M.M.A. (Nagoya) Metropolitan area 8 740 9 434 9 304 0.5 -0.1 7.5 7.9 Japan Hiroshima Metropolitan area 2 044 2 180 2 213 0.4 0.1 1.7 1.8 Japan Kinki M.M.A. (Osaka) Metropolitan area 18 660 20 337 19 976 0.5 -0.1 16.1 17.1 Japan Kitakyushu-Fukuoka M.M.A. Metropolitan area 5 421 5 494 5 355 0.1 -0.2 4.3 4.6 Japan Sapporo Metropolitan area 2 508 2 564 2 542 0.1 -0.1 2.0 2.2 Japan Sendai Metropolitan area 2 184 2 071 2 012 -0.3 -0.2 1.6 1.7 Japan Shizuoka-Hamamatsu M.M.A. Metropolitan area 1 217 3 493 3 934 6.6 0.8 2.8 2.9 Japan Tokyo Metropolitan area 34 450 38 140 37 190 0.6 -0.2 30.1 32.1 Mongolia Ulaanbaatar City Proper 765 1 421 1 850 3.9 1.9 47.9 65.8 Republic of Korea Busan City Proper 3 594 3 200 3 264 -0.7 0.1 6.4 7.8 15The World’s Cities in 2016 City population (thousands) Average annual rate of change (percentage) City population as a proportion of the country or area’s total or urban population in 2016 (percentage) Country or area City Statistical Concepts 2000 2016 2030 2000-2016 2016-2030 Total population Urban population Republic of Korea Changwon Urban Agglomeration 1 077 1 036 1 090 -0.2 0.4 2.1 2.5 Republic of Korea Daegu City Proper 2 323 2 241 2 328 -0.2 0.3 4.5 5.4 Republic of Korea Daejon City Proper 1 354 1 578 1 711 1.0 0.6 3.2 3.8 Republic of Korea Gwangju City Proper 1 343 1 550 1 682 0.9 0.6 3.1 3.8 Republic of Korea Incheon City Proper 2 371 2 711 2 919 0.8 0.5 5.4 6.6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Southern Europe Greece Athínai (Athens) Urban Agglomeration 3 179 3 046 3 169 -0.3 0.3 27.4 35.0 Italy Milano (Milan) Metropolitan area 2 985 3 104 3 162 0.2 0.1 5.1 7.3 Italy Napoli (Naples) Metropolitan area 2 232 2 198 2 226 -0.1 0.1 3.6 5.2 Italy Roma (Rome) Metropolitan area 3 385 3 738 3 842 0.6 0.2 6.1 8.8 Italy Torino (Turin) Metropolitan area 1 694 1 769 1 825 0.3 0.2 2.9 4.2 Portugal Lisboa (Lisbon) Metropolitan area 2 672 2 902 3 192 0.5 0.7 27.4 42.7 Portugal Porto Metropolitan area 1 254 1 304 1 443 0.2 0.7 12.3 19.2 Serbia Beograd (Belgrade) Urban Agglomeration 1 122 1 183 1 196 0.3 0.1 12.6 22.7 Spain Barcelona City Proper 4 355 5 309 5 685 1.2 0.5 11.2 14.1 Spain Madrid City Proper 5 014 6 264 6 707 1.4 0.5 13.2 16.6 Western Europe Austria Wien (Vienna) City Proper 1 549 1 763 1 959 0.8 0.8 20.5 31.1 Belgium Bruxelles-Brussel Metropolitan area 1 792 2 061 2 203 0.9 0.5 18.4 18.8 France Lille Urban Agglomeration 1 002 1 030 1 142 0.2 0.7 1.6 2.0 France Lyon Urban Agglomeration 1 443 1 622 1 814 0.7 0.8 2.5 3.1 France Marseille-Aix-en-Provence Urban Agglomeration 1 474 1 616 1 798 0.6 0.8 2.5 3.1 France Paris Urban Agglomeration 9 737 10 925 11 803 0.7 0.6 16.7 21.0 Germany Berlin City Proper 3 384 3 578 3 658 0.3 0.2 4.3 5.7 Germany Hamburg City Proper 1 710 1 839 1 906 0.5 0.3 2.2 3.0 Germany Köln (Cologne) City Proper 963 1 042 1 095 0.5 0.4 1.3 1.7 Germany München (Munich) City Proper 1 202 1 454 1 548 1.2 0.4 1.8 2.3 22 The World’s Cities in 2016 City population (thousands) Average annual rate of change (percentage) City population as a proportion of the country or area’s total or urban population in 2016 (percentage)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>countries. They include: Lahore, Pakistan Hyderabad, India Bogotá, Colombia Johannesburg, South Africa Bangkok, Thailand Dar es Salaam, Tanzania Ahmanabad, India Luanda, Angola Ho Chi Minh City, Viet Nam and Chungdu, China. Despite a projected decline of nearly 1 million inhabitants, Tokyo is ex- pected to remain the world’s largest city in 2030, followed by Delhi, which is projected to add nearly 10 million people between 2016 and 2030. Rank City, Country Population in 2016 (thousands) City, Country Population in 2030 (thousands) 1 Tokyo, Japan 38 140 Tokyo, Japan 37 190 2 Delhi, India 26 454 Delhi, India 36 060 3 Shanghai, China 24 484 Shanghai, China 30 751 4 Mumbai (Bombay), India 21 357 Mumbai (Bombay), India 27 797 5 São Paulo, Brazil 21 297 Beijing, China 27 706 6 Beijing, China 21 240 Dhaka, Bangladesh 27 374 7 Ciudad de México (Mexico City), Mexico 21 157 Karachi, Pakistan 24 838 8 Kinki M.M.A. (Osaka), Japan 20 337 Al-Qahirah (Cairo), Egypt 24 502 9 Al-Qahirah (Cairo), Egypt 19 128 Lagos, Nigeria 24 239 10 New York-Newark, USA 18 604 Ciudad de México (Mexico City), Mexico 23 865 11 Dhaka, Bangladesh 18 237 São Paulo, Brazil 23 444 12 Karachi, Pakistan 17 121 Kinshasa, Democratic Republic of the Congo 19 996 13 Buenos Aires, Argentina 15 334 Kinki M.M.A. (Osaka), Japan 19 976 14 Kolkata (Calcutta), India 14 980 New York-Newark, USA 19 885 15 Istanbul, Turkey 14 365 Kolkata (Calcutta), India 19 092 16 Chongqing, China 13 744 Guangzhou, Guangdong, China 17 574 17 Lagos, Nigeria 13 661 Chongqing, China 17 380 18 Manila, Philippines 13 131 Buenos Aires, Argentina 16 956 19 Guangzhou, Guangdong, China 13 070 Manila, Philippines 16 756 20 Rio de Janeiro, Brazil 12 981 Istanbul, Turkey 16 694 21 Los Angeles-Long Beach-Santa Ana, USA 12 317 Bangalore, India 14 762 22 Moskva (Moscow), Russian Federation 12 260 Tianjin, China 14 655 23 Kinshasa, Democratic Republic of the Congo 12 071 Rio de Janeiro, Brazil 14 174 24 Tianjin, China 11 558 Chennai (Madras), India 13 921</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>India 13 921 25 Paris, France 10 925 Jakarta, Indonesia 13 812 26 Shenzhen, China 10 828 Los Angeles-Long Beach-Santa Ana, USA 13 257 27 Jakarta, Indonesia 10 483 Lahore, Pakistan 13 033 28 Bangalore, India 10 456 Hyderabad, India 12 774 29 London, United Kingdom 10 434 Shenzhen, China 12 673 30 Chennai (Madras), India 10 163 Lima, Peru 12 221 31 Lima, Peru 10 072 Moskva (Moscow), Russian Federation 12 200 32 Bogotá, Colombia 11 966 33 Paris, France 11 803 34 Johannesburg, South Africa 11 573 35 Krung Thep (Bangkok), Thailand 11 528 36 London, United Kingdom 11 467 37 Dar es Salaam, United Republic of Tanzania 10 760 38 Ahmadabad, India 10 527 39 Luanda, Angola 10 429 40 Thành Pho Ho Chí Minh (Ho Chi Minh City), Viet Nam 10 200 41 Chengdu, China 10 104 5The World’s Cities in 2016 The share of the population residing in cities is projected to increase in all regions In Northern America, more than half of the population resided in cities with 500,000 inhabitants or more in 2016 and one in five people lived in a city of 5 million inhabitants or more. Latin America and the Caribbean is the region with the largest proportion of the population concentrated in megacities: of the total population of the region in 2016, 12.7 per cent resided in the five cities with 10 million inhabitants or more and the share in megacities is projected to rise to 14.3 per cent in 2030, as Bogotá crosses the 10 million threshold. In both Africa and Asia, more than half of the population lived in rural areas in 2016, but that share is declining. Between 2016 and 2030, the number of cities with 500,000 inhabitants or more is expected to grow by 80 per cent in Africa and by 30 per cent in Asia. Population distribution by size class of settlement and region, 2016 and 2030 6 The World’s Cities in 2016 Between 2000 and 2016, the world’s cities with 500,000 inhabitants or more grew at an average annual rate of 2.4 per cent. However, 47 of these cities grew more than twice as fast, with average growth in</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>The World’s Cities in 2016 United Nations Data Booklet file:V:\PEP-Section\WUP2014\2016%20Data%20Booklet\Charts%20and%20Images\4_Urbanization_BusanRepublic%20of%20Korea2011UNPhoto_Kibae%20Park_03022015.jpg ii The World’s Cities in 2016 In 2016, an estimated 54.5 per cent of the world’s population lived in urban settlements. By 2030, urban areas are projected to house 60 per cent of people globally and one in every three people will live in cities with at least half a million inhabitants. Understanding the key trends in urbanization likely to unfold over the coming years is crucial to the implementation of the 2030 Agenda for Sustainable Development and for efforts to forge a new framework of ur- ban development during the Habitat III confer- ence scheduled to be held in Quito, Ecuador in October 2016. This data booklet highlights current and future trajectories of populations in cities around the globe, drawing on population estimates and projections published in World Urbanization Prospects: The 2014 Revision. All information is available at www.unpopulation.org. Suggested citation: United Nations, Department of Economic and Social Affairs, Population Di- vision (2016). The World’s Cities in 2016 – Data Booklet (ST/ESA/ SER.A/392). Cover photo: Copyright © UN Photo/Kibae Park 1The World’s Cities in 2016 What is a City? Most people can agree that cities are places where large numbers of people live and work; they are hubs of government, commerce and transportation. But how best to define the geographical limits of a city is a matter of some debate. So far, no standardized international criteria exist for determining the boundaries of a city and often multiple different boundary definitions are available for any given city. One type of definition, sometimes referred to as the “city proper”, describes a city according to an administrative boundary. A second approach, termed the “ur-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The World’s Cities in 2016 United Nations Data Booklet file:V:\PEP-Section\WUP2014\2016%20Data%20Booklet\Charts%20and%20Images\4_Urbanization_BusanRepublic%20of%20Korea2011UNPhoto_Kibae%20Park_03022015.jpg ii The World’s Cities in 2016 In 2016, an estimated 54.5 per cent of the world’s population lived in urban settlements. By 2030, urban areas are projected to house 60 per cent of people globally and one in every three people will live in cities with at least half a million inhabitants. Understanding the key trends in urbanization likely to unfold over the coming years is crucial to the implementation of the 2030 Agenda for Sustainable Development and for efforts to forge a new framework of ur- ban development during the Habitat III confer- ence scheduled to be held in Quito, Ecuador in October 2016. This data booklet highlights current and future trajectories of populations in cities around the globe, drawing on population estimates and projections published in World Urbanization Prospects: The 2014 Revision. All information is available at www.unpopulation.org. Suggested citation: United Nations, Department of Economic and Social Affairs, Population Di- vision (2016). The World’s Cities in 2016 – Data Booklet (ST/ESA/ SER.A/392). Cover photo: Copyright © UN Photo/Kibae Park 1The World’s Cities in 2016 What is a City? Most people can agree that cities are places where large numbers of people live and work; they are hubs of government, commerce and transportation. But how best to define the geographical limits of a city is a matter of some debate. So far, no standardized international criteria exist for determining the boundaries of a city and often multiple different boundary definitions are available for any given city. One type of definition, sometimes referred to as the “city proper”, describes a city according to an administrative boundary. A second approach, termed the “ur-</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>inhabitants In 2016, 1.7 billion people—23 per cent of the world’s population— lived in a city with at least 1 million inhabitants. By 2030, a projected 27 per cent of people worldwide will be concentrated in cities with at least 1 million inhabitants. Between 2016 and 2030, the population in all city size classes is pro- jected to increase, while the rural population is projected to decline slightly. While rural areas were home to more than 45 per cent of the world’s population in 2016, that proportion is expected to fall to 40 per cent by 2030. A minority of people reside in megacities—500 million, representing 6.8 per cent of the global population in 2016. But, as these cities increase in both size and number, they will become home to a grow- ing share of the population. By 2030, a projected 730 million people will live in cities with at least 10 million inhabitants, representing 8.7 per cent of people globally. World’s population by size class of settlement, 1990-2030 2016 2030 Number of settlements Population (millions) Percentage of world population Number of settlements Population (millions) Percentage of world population Urban .. 4 034 54.5 .. 5 058 60.0 10 million or more 31 500 6.8 41 730 8.7 5 to 10 million 45 308 4.2 63 434 5.2 1 to 5 million 436 861 11.6 558 1 128 13.4 500 000 to 1 million 551 380 5.1 731 509 6.0 Fewer than 500 000 .. 1 985 26.8 .. 2 257 26.8 Rural .. 3 371 45.5 .. 3 367 40.0 World’s population by size class of settlement, 2016 and 2030 4 The World’s Cities in 2016 Most megacities are located in the global South Of the world’s 31 megacities (that is, cities with 10 million inhabitants or more) in 2016, 24 are located in the less developed regions or the “global South”. China alone was home to six megacities in 2016, while India had five. The 10 cities that are projected to be- come megacities between 2016 and 2030 are all located in developing countries.</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.4 0.2 0.3 China, Hong Kong SAR Hong Kong Urban Agglomeration 6 835 7 365 7 885 0.5 0.5 100.0 100.0 Dem. People’s Rep. of Korea P’yongyang City Proper 2 777 2 872 3 277 0.2 0.9 11.4 18.6 Japan Chukyo M.M.A. (Nagoya) Metropolitan area 8 740 9 434 9 304 0.5 -0.1 7.5 7.9 Japan Hiroshima Metropolitan area 2 044 2 180 2 213 0.4 0.1 1.7 1.8 Japan Kinki M.M.A. (Osaka) Metropolitan area 18 660 20 337 19 976 0.5 -0.1 16.1 17.1 Japan Kitakyushu-Fukuoka M.M.A. Metropolitan area 5 421 5 494 5 355 0.1 -0.2 4.3 4.6 Japan Sapporo Metropolitan area 2 508 2 564 2 542 0.1 -0.1 2.0 2.2 Japan Sendai Metropolitan area 2 184 2 071 2 012 -0.3 -0.2 1.6 1.7 Japan Shizuoka-Hamamatsu M.M.A. Metropolitan area 1 217 3 493 3 934 6.6 0.8 2.8 2.9 Japan Tokyo Metropolitan area 34 450 38 140 37 190 0.6 -0.2 30.1 32.1 Mongolia Ulaanbaatar City Proper 765 1 421 1 850 3.9 1.9 47.9 65.8 Republic of Korea Busan City Proper 3 594 3 200 3 264 -0.7 0.1 6.4 7.8 15The World’s Cities in 2016 City population (thousands) Average annual rate of change (percentage) City population as a proportion of the country or area’s total or urban population in 2016 (percentage) Country or area City Statistical Concepts 2000 2016 2030 2000-2016 2016-2030 Total population Urban population Republic of Korea Changwon Urban Agglomeration 1 077 1 036 1 090 -0.2 0.4 2.1 2.5 Republic of Korea Daegu City Proper 2 323 2 241 2 328 -0.2 0.3 4.5 5.4 Republic of Korea Daejon City Proper 1 354 1 578 1 711 1.0 0.6 3.2 3.8 Republic of Korea Gwangju City Proper 1 343 1 550 1 682 0.9 0.6 3.1 3.8 Republic of Korea Incheon City Proper 2 371 2 711 2 919 0.8 0.5 5.4 6.6</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>countries. They include: Lahore, Pakistan Hyderabad, India Bogotá, Colombia Johannesburg, South Africa Bangkok, Thailand Dar es Salaam, Tanzania Ahmanabad, India Luanda, Angola Ho Chi Minh City, Viet Nam and Chungdu, China. Despite a projected decline of nearly 1 million inhabitants, Tokyo is ex- pected to remain the world’s largest city in 2030, followed by Delhi, which is projected to add nearly 10 million people between 2016 and 2030. Rank City, Country Population in 2016 (thousands) City, Country Population in 2030 (thousands) 1 Tokyo, Japan 38 140 Tokyo, Japan 37 190 2 Delhi, India 26 454 Delhi, India 36 060 3 Shanghai, China 24 484 Shanghai, China 30 751 4 Mumbai (Bombay), India 21 357 Mumbai (Bombay), India 27 797 5 São Paulo, Brazil 21 297 Beijing, China 27 706 6 Beijing, China 21 240 Dhaka, Bangladesh 27 374 7 Ciudad de México (Mexico City), Mexico 21 157 Karachi, Pakistan 24 838 8 Kinki M.M.A. (Osaka), Japan 20 337 Al-Qahirah (Cairo), Egypt 24 502 9 Al-Qahirah (Cairo), Egypt 19 128 Lagos, Nigeria 24 239 10 New York-Newark, USA 18 604 Ciudad de México (Mexico City), Mexico 23 865 11 Dhaka, Bangladesh 18 237 São Paulo, Brazil 23 444 12 Karachi, Pakistan 17 121 Kinshasa, Democratic Republic of the Congo 19 996 13 Buenos Aires, Argentina 15 334 Kinki M.M.A. (Osaka), Japan 19 976 14 Kolkata (Calcutta), India 14 980 New York-Newark, USA 19 885 15 Istanbul, Turkey 14 365 Kolkata (Calcutta), India 19 092 16 Chongqing, China 13 744 Guangzhou, Guangdong, China 17 574 17 Lagos, Nigeria 13 661 Chongqing, China 17 380 18 Manila, Philippines 13 131 Buenos Aires, Argentina 16 956 19 Guangzhou, Guangdong, China 13 070 Manila, Philippines 16 756 20 Rio de Janeiro, Brazil 12 981 Istanbul, Turkey 16 694 21 Los Angeles-Long Beach-Santa Ana, USA 12 317 Bangalore, India 14 762 22 Moskva (Moscow), Russian Federation 12 260 Tianjin, China 14 655 23 Kinshasa, Democratic Republic of the Congo 12 071 Rio de Janeiro, Brazil 14 174 24 Tianjin, China 11 558 Chennai (Madras), India 13 921</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Southern Europe Greece Athínai (Athens) Urban Agglomeration 3 179 3 046 3 169 -0.3 0.3 27.4 35.0 Italy Milano (Milan) Metropolitan area 2 985 3 104 3 162 0.2 0.1 5.1 7.3 Italy Napoli (Naples) Metropolitan area 2 232 2 198 2 226 -0.1 0.1 3.6 5.2 Italy Roma (Rome) Metropolitan area 3 385 3 738 3 842 0.6 0.2 6.1 8.8 Italy Torino (Turin) Metropolitan area 1 694 1 769 1 825 0.3 0.2 2.9 4.2 Portugal Lisboa (Lisbon) Metropolitan area 2 672 2 902 3 192 0.5 0.7 27.4 42.7 Portugal Porto Metropolitan area 1 254 1 304 1 443 0.2 0.7 12.3 19.2 Serbia Beograd (Belgrade) Urban Agglomeration 1 122 1 183 1 196 0.3 0.1 12.6 22.7 Spain Barcelona City Proper 4 355 5 309 5 685 1.2 0.5 11.2 14.1 Spain Madrid City Proper 5 014 6 264 6 707 1.4 0.5 13.2 16.6 Western Europe Austria Wien (Vienna) City Proper 1 549 1 763 1 959 0.8 0.8 20.5 31.1 Belgium Bruxelles-Brussel Metropolitan area 1 792 2 061 2 203 0.9 0.5 18.4 18.8 France Lille Urban Agglomeration 1 002 1 030 1 142 0.2 0.7 1.6 2.0 France Lyon Urban Agglomeration 1 443 1 622 1 814 0.7 0.8 2.5 3.1 France Marseille-Aix-en-Provence Urban Agglomeration 1 474 1 616 1 798 0.6 0.8 2.5 3.1 France Paris Urban Agglomeration 9 737 10 925 11 803 0.7 0.6 16.7 21.0 Germany Berlin City Proper 3 384 3 578 3 658 0.3 0.2 4.3 5.7 Germany Hamburg City Proper 1 710 1 839 1 906 0.5 0.3 2.2 3.0 Germany Köln (Cologne) City Proper 963 1 042 1 095 0.5 0.4 1.3 1.7 Germany München (Munich) City Proper 1 202 1 454 1 548 1.2 0.4 1.8 2.3 22 The World’s Cities in 2016 City population (thousands) Average annual rate of change (percentage) City population as a proportion of the country or area’s total or urban population in 2016 (percentage)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1.4 0.2 0.3 China, Hong Kong SAR Hong Kong Urban Agglomeration 6 835 7 365 7 885 0.5 0.5 100.0 100.0 Dem. People’s Rep. of Korea P’yongyang City Proper 2 777 2 872 3 277 0.2 0.9 11.4 18.6 Japan Chukyo M.M.A. (Nagoya) Metropolitan area 8 740 9 434 9 304 0.5 -0.1 7.5 7.9 Japan Hiroshima Metropolitan area 2 044 2 180 2 213 0.4 0.1 1.7 1.8 Japan Kinki M.M.A. (Osaka) Metropolitan area 18 660 20 337 19 976 0.5 -0.1 16.1 17.1 Japan Kitakyushu-Fukuoka M.M.A. Metropolitan area 5 421 5 494 5 355 0.1 -0.2 4.3 4.6 Japan Sapporo Metropolitan area 2 508 2 564 2 542 0.1 -0.1 2.0 2.2 Japan Sendai Metropolitan area 2 184 2 071 2 012 -0.3 -0.2 1.6 1.7 Japan Shizuoka-Hamamatsu M.M.A. Metropolitan area 1 217 3 493 3 934 6.6 0.8 2.8 2.9 Japan Tokyo Metropolitan area 34 450 38 140 37 190 0.6 -0.2 30.1 32.1 Mongolia Ulaanbaatar City Proper 765 1 421 1 850 3.9 1.9 47.9 65.8 Republic of Korea Busan City Proper 3 594 3 200 3 264 -0.7 0.1 6.4 7.8 15The World’s Cities in 2016 City population (thousands) Average annual rate of change (percentage) City population as a proportion of the country or area’s total or urban population in 2016 (percentage) Country or area City Statistical Concepts 2000 2016 2030 2000-2016 2016-2030 Total population Urban population Republic of Korea Changwon Urban Agglomeration 1 077 1 036 1 090 -0.2 0.4 2.1 2.5 Republic of Korea Daegu City Proper 2 323 2 241 2 328 -0.2 0.3 4.5 5.4 Republic of Korea Daejon City Proper 1 354 1 578 1 711 1.0 0.6 3.2 3.8 Republic of Korea Gwangju City Proper 1 343 1 550 1 682 0.9 0.6 3.1 3.8 Republic of Korea Incheon City Proper 2 371 2 711 2 919 0.8 0.5 5.4 6.6</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Contextual Recall</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Contextual Recall Reason</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>Search Type</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pure Text</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Pure Vector</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Hybrid</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Semantic Hybrid</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Contextual Relevancy</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+          <t>Contextual Precision</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>Contextual Precision Reason</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The score is 0.50 because the first node in the retrieval context, which discusses urbanization and population living in urban settlements without specifying city sizes, should be ranked lower. This node is not directly relevant to the query about the biggest city in the world. On the other hand, the second node, which includes population data and specifically mentions the "Japan Tokyo Metropolitan area" as a contender for the biggest city, is highly relevant and should be ranked higher. The third node, detailing cities in Southern Europe without identifying the largest city globally, is also less relevant and should be positioned lower than the second node. The presence of an irrelevant node ranked before a relevant one explains why the score is not higher. The score is at 0.50 because there is still one relevant node ranked above an irrelevant one, indicating some level of precision in the ranking.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>The score is 1.00 because all relevant information was perfectly placed at the top of the retrieval contexts, with the first node clearly identifying Tokyo as the world's largest city, which directly answers the input question. The subsequent nodes, while providing additional city data and discussing urbanization trends, are correctly ranked lower as they do not contribute further to the specific query regarding the biggest city.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>The score is 0.33 because the relevant node, which explicitly lists 'Japan Tokyo Metropolitan area' with a population of '38,140' indicating it as a significant city, is ranked third. The first and second nodes, which discuss urban population trends and the increase of megacities without identifying the biggest city, should be ranked lower as they are less directly related to the query about the biggest city in the world.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>The score is 1.00 because all relevant information is prioritized correctly. The first node in the retrieval context confidently identifies Tokyo as the largest city, which is precisely the information sought. Subsequent nodes, although not contributing to the biggest city query, are ranked lower, maintaining the perfect contextual precision. Great job on keeping the most pertinent information at the top!</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Contextual Recall</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Contextual Recall Reason</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>The score is 1.00 because the 2nd node in the retrieval context directly references Tokyo's significant size and importance, aligning perfectly with the statement that Tokyo is the biggest city in the world. Great job on achieving perfect contextual recall!</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>The score is 1.00 because the 1st sentence in the expected output aligns perfectly with the information provided by the 1st node in the retrieval context, confirming Tokyo's status as the world's largest city. Great job on the precise match!</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>The score is 1.00 because the statement about Tokyo being the biggest city aligns perfectly with the information from the 3rd node in retrieval context, showcasing Tokyo's substantial population figure. Great match!</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>The score is 1.00 because the 1st node in the retrieval context directly confirms the expected output, which identifies Tokyo as the world's largest city. Great alignment!</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Contextual Relevancy</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>Contextual Relevancy Reason</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The score is 0.33 because the context, while related to urbanization and cities, fails to identify the biggest city in the world, which is the direct answer sought by the input. As highlighted, it "does not specify which city is the biggest," and "does not directly answer the question."</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The score is 0.33 because the context, while discussing related topics such as city populations and urbanization, fails to directly answer the question of which city is the largest, as it "does not clearly state which one is the biggest city in the world" and "does not specify which city is the biggest."</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>The score is 0.00 because the context fails to answer the specific inquiry about the largest city, as it "does not specify which city is the biggest in the world" and "does not explicitly state which city is the biggest."</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>The score is 0.67 because the context provides population statistics for multiple cities, yet it fails to clarify which city is the 'biggest' based on specific metrics like area, population, or density, which are critical for determining the 'biggest city in the world.'</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
